--- a/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DealerContact" sheetId="1" r:id="rId1"/>
     <sheet name="Dealer" sheetId="2" r:id="rId2"/>
-    <sheet name="DealerOtherText" sheetId="3" r:id="rId3"/>
+    <sheet name="DealerOther" sheetId="3" r:id="rId3"/>
     <sheet name="TheView" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="DealerContact" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
-    <t>DealerId</t>
-  </si>
-  <si>
     <t>DealerContactText</t>
   </si>
   <si>
     <t>hello</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>DealerText</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>!!</t>
+  </si>
+  <si>
+    <t>DealerId as long</t>
+  </si>
+  <si>
+    <t>ID as long</t>
   </si>
 </sst>
 </file>
@@ -381,21 +381,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -408,7 +409,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +427,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +437,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,22 +470,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,24 +528,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLJoin/TestSQLJoin/Data/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DealerContact" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>DealerContactText</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>ID as long</t>
+  </si>
+  <si>
+    <t>DealerContact</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>DealerOther</t>
   </si>
 </sst>
 </file>
@@ -381,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +533,11 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +547,17 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
